--- a/data/G_1816.xlsx
+++ b/data/G_1816.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="740" windowWidth="27760" windowHeight="16240" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="modelo1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="exploracionCATEGORICAModelo1" sheetId="5" r:id="rId3"/>
     <sheet name="exploracionNUMERICAModelo1" sheetId="6" r:id="rId4"/>
     <sheet name="correlacionModelo1" sheetId="3" r:id="rId5"/>
+    <sheet name="diferenciaMediasModelo1" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="avance16">#REF!</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="90">
   <si>
     <t>sector</t>
   </si>
@@ -243,6 +244,69 @@
   <si>
     <t>coefAsim</t>
   </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>El tiempo ha permitido que mejore el nivel de avance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO, si F &lt; Fcrit </t>
+  </si>
+  <si>
+    <t>NO si P-valor &gt; 0.05</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,8 +351,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +392,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -361,6 +446,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -369,7 +474,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -406,6 +511,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -899,16 +1012,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1794898704"/>
-        <c:axId val="-2007664752"/>
+        <c:axId val="-2011880432"/>
+        <c:axId val="1762400704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1794898704"/>
+        <c:axId val="-2011880432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -945,7 +1059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007664752"/>
+        <c:crossAx val="1762400704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -953,7 +1067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2007664752"/>
+        <c:axId val="1762400704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1794898704"/>
+        <c:crossAx val="-2011880432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1017,7 +1131,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1368,11 +1481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1789452064"/>
-        <c:axId val="1779578432"/>
+        <c:axId val="1783525216"/>
+        <c:axId val="-2056237408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1789452064"/>
+        <c:axId val="1783525216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,6 +1505,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1428,12 +1542,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1779578432"/>
+        <c:crossAx val="-2056237408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1779578432"/>
+        <c:axId val="-2056237408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,6 +1567,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1489,7 +1604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1789452064"/>
+        <c:crossAx val="1783525216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4497,8 +4612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8803,8 +8918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10632,8 +10747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12379,4 +12494,1880 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1625414860</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2024038576</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1722658272</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1705139733</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1705139733</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1704811508</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1698269491</v>
+      </c>
+      <c r="I2" s="6">
+        <v>8767049949</v>
+      </c>
+      <c r="J2" s="6">
+        <v>7241596982</v>
+      </c>
+      <c r="K2" s="6">
+        <v>5359090659</v>
+      </c>
+      <c r="L2" s="6">
+        <v>5311970920</v>
+      </c>
+      <c r="M2" s="6">
+        <v>5305013225</v>
+      </c>
+      <c r="N2" s="6">
+        <v>5304882546</v>
+      </c>
+      <c r="O2" s="6">
+        <v>5301352967</v>
+      </c>
+      <c r="P2" s="14">
+        <f>G2/C2</f>
+        <v>0.84228212259132362</v>
+      </c>
+      <c r="Q2" s="15">
+        <f>N2/J2</f>
+        <v>0.73255699801936314</v>
+      </c>
+      <c r="T2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5">
+        <v>447734273</v>
+      </c>
+      <c r="C3" s="5">
+        <v>542961434</v>
+      </c>
+      <c r="D3" s="5">
+        <v>489318337</v>
+      </c>
+      <c r="E3" s="5">
+        <v>487710623</v>
+      </c>
+      <c r="F3" s="5">
+        <v>487710623</v>
+      </c>
+      <c r="G3" s="5">
+        <v>487547317</v>
+      </c>
+      <c r="H3" s="5">
+        <v>487213709</v>
+      </c>
+      <c r="I3" s="7">
+        <v>592575661</v>
+      </c>
+      <c r="J3" s="7">
+        <v>619462643</v>
+      </c>
+      <c r="K3" s="7">
+        <v>592458951</v>
+      </c>
+      <c r="L3" s="7">
+        <v>587857394</v>
+      </c>
+      <c r="M3" s="7">
+        <v>583907096</v>
+      </c>
+      <c r="N3" s="7">
+        <v>583623325</v>
+      </c>
+      <c r="O3" s="7">
+        <v>583148084</v>
+      </c>
+      <c r="P3" s="14">
+        <f t="shared" ref="P3:P31" si="0">G3/C3</f>
+        <v>0.89794097051835908</v>
+      </c>
+      <c r="Q3" s="15">
+        <f t="shared" ref="Q3:Q31" si="1">N3/J3</f>
+        <v>0.94214450474941713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1820524120</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2123804552</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2105135711</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2086922677</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2086922658</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2086238254</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2081237451</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2290317387</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2487324456</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2472976071</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2468159670</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2466465269</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2382635784</v>
+      </c>
+      <c r="O4" s="7">
+        <v>2378790085</v>
+      </c>
+      <c r="P4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.98231179137241065</v>
+      </c>
+      <c r="Q4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.95791113147805595</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>522827961</v>
+      </c>
+      <c r="C5" s="5">
+        <v>648580409</v>
+      </c>
+      <c r="D5" s="5">
+        <v>535924055</v>
+      </c>
+      <c r="E5" s="5">
+        <v>525306776</v>
+      </c>
+      <c r="F5" s="5">
+        <v>525306776</v>
+      </c>
+      <c r="G5" s="5">
+        <v>525216579</v>
+      </c>
+      <c r="H5" s="5">
+        <v>524104420</v>
+      </c>
+      <c r="I5" s="7">
+        <v>606341696</v>
+      </c>
+      <c r="J5" s="7">
+        <v>681740039</v>
+      </c>
+      <c r="K5" s="7">
+        <v>636558153</v>
+      </c>
+      <c r="L5" s="7">
+        <v>631374230</v>
+      </c>
+      <c r="M5" s="7">
+        <v>626329629</v>
+      </c>
+      <c r="N5" s="7">
+        <v>624350365</v>
+      </c>
+      <c r="O5" s="7">
+        <v>624115079</v>
+      </c>
+      <c r="P5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.80979408522344065</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.91581883017435628</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1871476842</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1743582602</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1497281078</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1490689015</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1490689015</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1490465995</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1490165445</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1928442376</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2166955714</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1983783584</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1969232137</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1814836684</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1729760524</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1729255362</v>
+      </c>
+      <c r="P6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.85482958667420794</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.79824452010005409</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="16">
+        <v>30</v>
+      </c>
+      <c r="V6" s="16">
+        <v>27.030641556585621</v>
+      </c>
+      <c r="W6" s="19">
+        <v>0.90102138521952069</v>
+      </c>
+      <c r="X6" s="16">
+        <v>4.0323931984894961E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8791456124</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10512189064</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10117245189</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10098576644</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10098576644</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10084091030</v>
+      </c>
+      <c r="H7" s="5">
+        <v>10040198026</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10195546120</v>
+      </c>
+      <c r="J7" s="7">
+        <v>11296451326</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10963265614</v>
+      </c>
+      <c r="L7" s="7">
+        <v>10888036612</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10885938788</v>
+      </c>
+      <c r="N7" s="7">
+        <v>10884199689</v>
+      </c>
+      <c r="O7" s="7">
+        <v>10881042737</v>
+      </c>
+      <c r="P7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.9592760336221442</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.9635060936303812</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="17">
+        <v>30</v>
+      </c>
+      <c r="V7" s="17">
+        <v>27.008066792955404</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0.90026889309851343</v>
+      </c>
+      <c r="X7" s="17">
+        <v>5.1918331194588238E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>589166149</v>
+      </c>
+      <c r="C8" s="5">
+        <v>955585570</v>
+      </c>
+      <c r="D8" s="5">
+        <v>925392206</v>
+      </c>
+      <c r="E8" s="5">
+        <v>903515033</v>
+      </c>
+      <c r="F8" s="5">
+        <v>903515033</v>
+      </c>
+      <c r="G8" s="5">
+        <v>903347585</v>
+      </c>
+      <c r="H8" s="5">
+        <v>900817317</v>
+      </c>
+      <c r="I8" s="7">
+        <v>812800796</v>
+      </c>
+      <c r="J8" s="7">
+        <v>887225987</v>
+      </c>
+      <c r="K8" s="7">
+        <v>854485636</v>
+      </c>
+      <c r="L8" s="7">
+        <v>847659451</v>
+      </c>
+      <c r="M8" s="7">
+        <v>847659451</v>
+      </c>
+      <c r="N8" s="7">
+        <v>847624507</v>
+      </c>
+      <c r="O8" s="7">
+        <v>846962417</v>
+      </c>
+      <c r="P8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.94533405836172268</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.95536483310874887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>29131668240</v>
+      </c>
+      <c r="C9" s="5">
+        <v>23521643481</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20846177931</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20738626991</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20738551414</v>
+      </c>
+      <c r="G9" s="5">
+        <v>20738246623</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20733758304</v>
+      </c>
+      <c r="I9" s="7">
+        <v>25178974136</v>
+      </c>
+      <c r="J9" s="7">
+        <v>23817079535</v>
+      </c>
+      <c r="K9" s="7">
+        <v>22162033824</v>
+      </c>
+      <c r="L9" s="7">
+        <v>22022992846</v>
+      </c>
+      <c r="M9" s="7">
+        <v>22022279836</v>
+      </c>
+      <c r="N9" s="7">
+        <v>22017982172</v>
+      </c>
+      <c r="O9" s="7">
+        <v>21995689133</v>
+      </c>
+      <c r="P9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.88166656550813149</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.92446188205585134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>16079101198</v>
+      </c>
+      <c r="C10" s="5">
+        <v>12767861642</v>
+      </c>
+      <c r="D10" s="5">
+        <v>11591353393</v>
+      </c>
+      <c r="E10" s="5">
+        <v>11206273956</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11206163500</v>
+      </c>
+      <c r="G10" s="5">
+        <v>11175623678</v>
+      </c>
+      <c r="H10" s="5">
+        <v>11163468591</v>
+      </c>
+      <c r="I10" s="7">
+        <v>14232558127</v>
+      </c>
+      <c r="J10" s="7">
+        <v>11752676269</v>
+      </c>
+      <c r="K10" s="7">
+        <v>10984001400</v>
+      </c>
+      <c r="L10" s="7">
+        <v>10611628446</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10486437209</v>
+      </c>
+      <c r="N10" s="7">
+        <v>10454357496</v>
+      </c>
+      <c r="O10" s="7">
+        <v>10424825119</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.87529329431622926</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.88952994677267072</v>
+      </c>
+      <c r="T10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8197106439</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7430295255</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7122230545</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7021601472</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7021597842</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7013773303</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7006605407</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9918585442</v>
+      </c>
+      <c r="J11" s="7">
+        <v>9370578946</v>
+      </c>
+      <c r="K11" s="7">
+        <v>8970780721</v>
+      </c>
+      <c r="L11" s="7">
+        <v>8861226098</v>
+      </c>
+      <c r="M11" s="7">
+        <v>8749550492</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8717774804</v>
+      </c>
+      <c r="O11" s="7">
+        <v>8716168113</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.94394274551610668</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.930334705490245</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="W11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <v>305284585</v>
+      </c>
+      <c r="C12" s="5">
+        <v>330752523</v>
+      </c>
+      <c r="D12" s="5">
+        <v>320391800</v>
+      </c>
+      <c r="E12" s="5">
+        <v>318788679</v>
+      </c>
+      <c r="F12" s="5">
+        <v>318788679</v>
+      </c>
+      <c r="G12" s="5">
+        <v>318674610</v>
+      </c>
+      <c r="H12" s="5">
+        <v>318410551</v>
+      </c>
+      <c r="I12" s="7">
+        <v>551944786</v>
+      </c>
+      <c r="J12" s="7">
+        <v>519227956</v>
+      </c>
+      <c r="K12" s="7">
+        <v>456456276</v>
+      </c>
+      <c r="L12" s="7">
+        <v>453410077</v>
+      </c>
+      <c r="M12" s="7">
+        <v>451909792</v>
+      </c>
+      <c r="N12" s="7">
+        <v>450133845</v>
+      </c>
+      <c r="O12" s="7">
+        <v>448219876</v>
+      </c>
+      <c r="P12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96348353478773008</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="1"/>
+        <v>0.86692913930851601</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="16">
+        <v>8.4936658826806344E-6</v>
+      </c>
+      <c r="V12" s="16">
+        <v>1</v>
+      </c>
+      <c r="W12" s="16">
+        <v>8.4936658826806344E-6</v>
+      </c>
+      <c r="X12" s="16">
+        <v>1.8415996290450558E-3</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>0.96591759560351276</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>4.0068728863327339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2014240219</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2287141902</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1954757798</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1924936511</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1924936290</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1919812281</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1878134171</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2038570387</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2802674788</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2613581786</v>
+      </c>
+      <c r="L13" s="7">
+        <v>2257125748</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2197417692</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2190522857</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2178609288</v>
+      </c>
+      <c r="P13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.83939360269741581</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.78158296009904382</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0.26750256322050131</v>
+      </c>
+      <c r="V13" s="16">
+        <v>58</v>
+      </c>
+      <c r="W13" s="16">
+        <v>4.6121131589741604E-3</v>
+      </c>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+    </row>
+    <row r="14" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5">
+        <v>570528169</v>
+      </c>
+      <c r="C14" s="5">
+        <v>896889925</v>
+      </c>
+      <c r="D14" s="5">
+        <v>771506823</v>
+      </c>
+      <c r="E14" s="5">
+        <v>763883586</v>
+      </c>
+      <c r="F14" s="5">
+        <v>763883586</v>
+      </c>
+      <c r="G14" s="5">
+        <v>763875533</v>
+      </c>
+      <c r="H14" s="5">
+        <v>762772804</v>
+      </c>
+      <c r="I14" s="7">
+        <v>892047712</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1656481662</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1578629472</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1547562354</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1547253606</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1546994183</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1546794735</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="0"/>
+        <v>0.85169373822545724</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="1"/>
+        <v>0.93390359729801831</v>
+      </c>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+    </row>
+    <row r="15" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5">
+        <v>484207204</v>
+      </c>
+      <c r="C15" s="5">
+        <v>511393528</v>
+      </c>
+      <c r="D15" s="5">
+        <v>499116377</v>
+      </c>
+      <c r="E15" s="5">
+        <v>494271953</v>
+      </c>
+      <c r="F15" s="5">
+        <v>494271953</v>
+      </c>
+      <c r="G15" s="5">
+        <v>494213505</v>
+      </c>
+      <c r="H15" s="5">
+        <v>493843596</v>
+      </c>
+      <c r="I15" s="7">
+        <v>537686900</v>
+      </c>
+      <c r="J15" s="7">
+        <v>669586761</v>
+      </c>
+      <c r="K15" s="7">
+        <v>600661576</v>
+      </c>
+      <c r="L15" s="7">
+        <v>586945235</v>
+      </c>
+      <c r="M15" s="7">
+        <v>572641353</v>
+      </c>
+      <c r="N15" s="7">
+        <v>572233431</v>
+      </c>
+      <c r="O15" s="7">
+        <v>571126613</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96640547433756341</v>
+      </c>
+      <c r="Q15" s="15">
+        <f t="shared" si="1"/>
+        <v>0.85460684758072747</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" s="17">
+        <v>0.26751105688638399</v>
+      </c>
+      <c r="V15" s="17">
+        <v>59</v>
+      </c>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+    </row>
+    <row r="16" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5">
+        <v>58767788</v>
+      </c>
+      <c r="C16" s="5">
+        <v>61885045</v>
+      </c>
+      <c r="D16" s="5">
+        <v>59586864</v>
+      </c>
+      <c r="E16" s="5">
+        <v>59546709</v>
+      </c>
+      <c r="F16" s="5">
+        <v>59546709</v>
+      </c>
+      <c r="G16" s="5">
+        <v>59546709</v>
+      </c>
+      <c r="H16" s="5">
+        <v>59522639</v>
+      </c>
+      <c r="I16" s="7">
+        <v>65145000</v>
+      </c>
+      <c r="J16" s="7">
+        <v>72443571</v>
+      </c>
+      <c r="K16" s="7">
+        <v>71393385</v>
+      </c>
+      <c r="L16" s="7">
+        <v>71320404</v>
+      </c>
+      <c r="M16" s="7">
+        <v>71320404</v>
+      </c>
+      <c r="N16" s="7">
+        <v>71317194</v>
+      </c>
+      <c r="O16" s="7">
+        <v>71300215</v>
+      </c>
+      <c r="P16" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96221484528289514</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="1"/>
+        <v>0.98445166376461479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5">
+        <v>48392745</v>
+      </c>
+      <c r="C17" s="5">
+        <v>58488564</v>
+      </c>
+      <c r="D17" s="5">
+        <v>47311738</v>
+      </c>
+      <c r="E17" s="5">
+        <v>47295180</v>
+      </c>
+      <c r="F17" s="5">
+        <v>47295180</v>
+      </c>
+      <c r="G17" s="5">
+        <v>47282482</v>
+      </c>
+      <c r="H17" s="5">
+        <v>47267796</v>
+      </c>
+      <c r="I17" s="7">
+        <v>29008000</v>
+      </c>
+      <c r="J17" s="7">
+        <v>39920288</v>
+      </c>
+      <c r="K17" s="7">
+        <v>37917896</v>
+      </c>
+      <c r="L17" s="7">
+        <v>37917735</v>
+      </c>
+      <c r="M17" s="7">
+        <v>36561955</v>
+      </c>
+      <c r="N17" s="7">
+        <v>36559238</v>
+      </c>
+      <c r="O17" s="7">
+        <v>36556988</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.80840558848392996</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="1"/>
+        <v>0.91580596813329607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1505347082</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1634572569</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1599020297</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1582304867</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1582304867</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1582071753</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1578512586</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1824408000</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1940619713</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1932676631</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1932547043</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1932545704</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1925717347</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1921423768</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96788101244589042</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99232082107577768</v>
+      </c>
+      <c r="T18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5">
+        <v>42967000</v>
+      </c>
+      <c r="C19" s="5">
+        <v>53548462</v>
+      </c>
+      <c r="D19" s="5">
+        <v>50661544</v>
+      </c>
+      <c r="E19" s="5">
+        <v>49918634</v>
+      </c>
+      <c r="F19" s="5">
+        <v>49918634</v>
+      </c>
+      <c r="G19" s="5">
+        <v>49911240</v>
+      </c>
+      <c r="H19" s="5">
+        <v>49873706</v>
+      </c>
+      <c r="I19" s="7">
+        <v>39273000</v>
+      </c>
+      <c r="J19" s="7">
+        <v>42623551</v>
+      </c>
+      <c r="K19" s="7">
+        <v>39944183</v>
+      </c>
+      <c r="L19" s="7">
+        <v>39777724</v>
+      </c>
+      <c r="M19" s="7">
+        <v>39760568</v>
+      </c>
+      <c r="N19" s="7">
+        <v>39760568</v>
+      </c>
+      <c r="O19" s="7">
+        <v>39755824</v>
+      </c>
+      <c r="P19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.93207606971046153</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.93283096004835453</v>
+      </c>
+      <c r="T19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7596677556</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9009435584</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8379762292</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8245478134</v>
+      </c>
+      <c r="F20" s="5">
+        <v>8245465429</v>
+      </c>
+      <c r="G20" s="5">
+        <v>8238711552</v>
+      </c>
+      <c r="H20" s="5">
+        <v>8236185347</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7600413770</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8498254914</v>
+      </c>
+      <c r="K20" s="7">
+        <v>8309698911</v>
+      </c>
+      <c r="L20" s="7">
+        <v>8204549363</v>
+      </c>
+      <c r="M20" s="7">
+        <v>8099542917</v>
+      </c>
+      <c r="N20" s="7">
+        <v>8091362420</v>
+      </c>
+      <c r="O20" s="7">
+        <v>8088160129</v>
+      </c>
+      <c r="P20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.91445368305105135</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.95212046495220015</v>
+      </c>
+      <c r="T20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5">
+        <v>13765000</v>
+      </c>
+      <c r="C21" s="5">
+        <v>20871130</v>
+      </c>
+      <c r="D21" s="5">
+        <v>19854288</v>
+      </c>
+      <c r="E21" s="5">
+        <v>19854277</v>
+      </c>
+      <c r="F21" s="5">
+        <v>19854277</v>
+      </c>
+      <c r="G21" s="5">
+        <v>19786475</v>
+      </c>
+      <c r="H21" s="5">
+        <v>19774075</v>
+      </c>
+      <c r="I21" s="7">
+        <v>21255264</v>
+      </c>
+      <c r="J21" s="7">
+        <v>21754388</v>
+      </c>
+      <c r="K21" s="7">
+        <v>21708267</v>
+      </c>
+      <c r="L21" s="7">
+        <v>21708267</v>
+      </c>
+      <c r="M21" s="7">
+        <v>21708267</v>
+      </c>
+      <c r="N21" s="7">
+        <v>21703207</v>
+      </c>
+      <c r="O21" s="7">
+        <v>21703207</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.94803084452063691</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99764732522008892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5">
+        <v>624824866</v>
+      </c>
+      <c r="C22" s="5">
+        <v>651461557</v>
+      </c>
+      <c r="D22" s="5">
+        <v>524650469</v>
+      </c>
+      <c r="E22" s="5">
+        <v>523788854</v>
+      </c>
+      <c r="F22" s="5">
+        <v>523788854</v>
+      </c>
+      <c r="G22" s="5">
+        <v>522541769</v>
+      </c>
+      <c r="H22" s="5">
+        <v>521747354</v>
+      </c>
+      <c r="I22" s="7">
+        <v>708032291</v>
+      </c>
+      <c r="J22" s="7">
+        <v>709777837</v>
+      </c>
+      <c r="K22" s="7">
+        <v>562249032</v>
+      </c>
+      <c r="L22" s="7">
+        <v>551053520</v>
+      </c>
+      <c r="M22" s="7">
+        <v>551053520</v>
+      </c>
+      <c r="N22" s="7">
+        <v>550915607</v>
+      </c>
+      <c r="O22" s="7">
+        <v>550087338</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="0"/>
+        <v>0.80210683713452025</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.77618034585095108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5">
+        <v>147251120</v>
+      </c>
+      <c r="C23" s="5">
+        <v>169246249</v>
+      </c>
+      <c r="D23" s="5">
+        <v>163432368</v>
+      </c>
+      <c r="E23" s="5">
+        <v>163432316</v>
+      </c>
+      <c r="F23" s="5">
+        <v>163432316</v>
+      </c>
+      <c r="G23" s="5">
+        <v>163431482</v>
+      </c>
+      <c r="H23" s="5">
+        <v>163265319</v>
+      </c>
+      <c r="I23" s="7">
+        <v>43197978</v>
+      </c>
+      <c r="J23" s="7">
+        <v>208993846</v>
+      </c>
+      <c r="K23" s="7">
+        <v>194670232</v>
+      </c>
+      <c r="L23" s="7">
+        <v>194380626</v>
+      </c>
+      <c r="M23" s="7">
+        <v>194302252</v>
+      </c>
+      <c r="N23" s="7">
+        <v>194302252</v>
+      </c>
+      <c r="O23" s="7">
+        <v>191387293</v>
+      </c>
+      <c r="P23" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96564315584920291</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.92970322197908162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5">
+        <v>338220002</v>
+      </c>
+      <c r="C24" s="5">
+        <v>480913173</v>
+      </c>
+      <c r="D24" s="5">
+        <v>403740134</v>
+      </c>
+      <c r="E24" s="5">
+        <v>403672808</v>
+      </c>
+      <c r="F24" s="5">
+        <v>403672808</v>
+      </c>
+      <c r="G24" s="5">
+        <v>403568530</v>
+      </c>
+      <c r="H24" s="5">
+        <v>403537180</v>
+      </c>
+      <c r="I24" s="7">
+        <v>58642327</v>
+      </c>
+      <c r="J24" s="7">
+        <v>565056032</v>
+      </c>
+      <c r="K24" s="7">
+        <v>517644708</v>
+      </c>
+      <c r="L24" s="7">
+        <v>512754943</v>
+      </c>
+      <c r="M24" s="7">
+        <v>512754943</v>
+      </c>
+      <c r="N24" s="7">
+        <v>511572343</v>
+      </c>
+      <c r="O24" s="7">
+        <v>507132161</v>
+      </c>
+      <c r="P24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.83917129464864959</v>
+      </c>
+      <c r="Q24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.90534799033877056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5">
+        <v>280049870</v>
+      </c>
+      <c r="C25" s="5">
+        <v>353301038</v>
+      </c>
+      <c r="D25" s="5">
+        <v>331120406</v>
+      </c>
+      <c r="E25" s="5">
+        <v>331045227</v>
+      </c>
+      <c r="F25" s="5">
+        <v>331045227</v>
+      </c>
+      <c r="G25" s="5">
+        <v>330625362</v>
+      </c>
+      <c r="H25" s="5">
+        <v>330179823</v>
+      </c>
+      <c r="I25" s="7">
+        <v>367053258</v>
+      </c>
+      <c r="J25" s="7">
+        <v>478975262</v>
+      </c>
+      <c r="K25" s="7">
+        <v>401125963</v>
+      </c>
+      <c r="L25" s="7">
+        <v>392327748</v>
+      </c>
+      <c r="M25" s="7">
+        <v>392329918</v>
+      </c>
+      <c r="N25" s="7">
+        <v>392298191</v>
+      </c>
+      <c r="O25" s="7">
+        <v>391669161</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="0"/>
+        <v>0.93581769210652588</v>
+      </c>
+      <c r="Q25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.81903643491299971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5">
+        <v>505283712</v>
+      </c>
+      <c r="C26" s="5">
+        <v>537021774</v>
+      </c>
+      <c r="D26" s="5">
+        <v>501466024</v>
+      </c>
+      <c r="E26" s="5">
+        <v>497150911</v>
+      </c>
+      <c r="F26" s="5">
+        <v>497150911</v>
+      </c>
+      <c r="G26" s="5">
+        <v>497119895</v>
+      </c>
+      <c r="H26" s="5">
+        <v>495025214</v>
+      </c>
+      <c r="I26" s="7">
+        <v>599132410</v>
+      </c>
+      <c r="J26" s="7">
+        <v>642820599</v>
+      </c>
+      <c r="K26" s="7">
+        <v>574358338</v>
+      </c>
+      <c r="L26" s="7">
+        <v>569908876</v>
+      </c>
+      <c r="M26" s="7">
+        <v>566909820</v>
+      </c>
+      <c r="N26" s="7">
+        <v>566827287</v>
+      </c>
+      <c r="O26" s="7">
+        <v>565340009</v>
+      </c>
+      <c r="P26" s="14">
+        <f t="shared" si="0"/>
+        <v>0.92569783771933245</v>
+      </c>
+      <c r="Q26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.88178146108227007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10284800359</v>
+      </c>
+      <c r="C27" s="5">
+        <v>10740402592</v>
+      </c>
+      <c r="D27" s="5">
+        <v>9650714904</v>
+      </c>
+      <c r="E27" s="5">
+        <v>9024701764</v>
+      </c>
+      <c r="F27" s="5">
+        <v>9024701764</v>
+      </c>
+      <c r="G27" s="5">
+        <v>8985887192</v>
+      </c>
+      <c r="H27" s="5">
+        <v>8973458494</v>
+      </c>
+      <c r="I27" s="7">
+        <v>14278377405</v>
+      </c>
+      <c r="J27" s="7">
+        <v>11701399770</v>
+      </c>
+      <c r="K27" s="7">
+        <v>10914026757</v>
+      </c>
+      <c r="L27" s="7">
+        <v>10623304160</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10379421268</v>
+      </c>
+      <c r="N27" s="7">
+        <v>10375601238</v>
+      </c>
+      <c r="O27" s="7">
+        <v>10363223935</v>
+      </c>
+      <c r="P27" s="14">
+        <f t="shared" si="0"/>
+        <v>0.83664342328220986</v>
+      </c>
+      <c r="Q27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.88669744149763374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4994365078</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2478207482</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2091212583</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2039396196</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2039396196</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2038210653</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2022902732</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5427910973</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5135913677</v>
+      </c>
+      <c r="K28" s="7">
+        <v>4459068435</v>
+      </c>
+      <c r="L28" s="7">
+        <v>4146086092</v>
+      </c>
+      <c r="M28" s="7">
+        <v>4083735856</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4075019065</v>
+      </c>
+      <c r="O28" s="7">
+        <v>4071740999</v>
+      </c>
+      <c r="P28" s="14">
+        <f t="shared" si="0"/>
+        <v>0.82245359511024185</v>
+      </c>
+      <c r="Q28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.79343605077496326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="5">
+        <v>745729283</v>
+      </c>
+      <c r="C29" s="5">
+        <v>816729717</v>
+      </c>
+      <c r="D29" s="5">
+        <v>685239206</v>
+      </c>
+      <c r="E29" s="5">
+        <v>649900830</v>
+      </c>
+      <c r="F29" s="5">
+        <v>649900830</v>
+      </c>
+      <c r="G29" s="5">
+        <v>649875257</v>
+      </c>
+      <c r="H29" s="5">
+        <v>647699364</v>
+      </c>
+      <c r="I29" s="7">
+        <v>845421997</v>
+      </c>
+      <c r="J29" s="7">
+        <v>911804592</v>
+      </c>
+      <c r="K29" s="7">
+        <v>780210737</v>
+      </c>
+      <c r="L29" s="7">
+        <v>772974378</v>
+      </c>
+      <c r="M29" s="7">
+        <v>766666719</v>
+      </c>
+      <c r="N29" s="7">
+        <v>764555174</v>
+      </c>
+      <c r="O29" s="7">
+        <v>763021317</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" si="0"/>
+        <v>0.79570418888039551</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="1"/>
+        <v>0.83850770297502519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="5">
+        <v>361205344</v>
+      </c>
+      <c r="C30" s="5">
+        <v>364826004</v>
+      </c>
+      <c r="D30" s="5">
+        <v>360133511</v>
+      </c>
+      <c r="E30" s="5">
+        <v>359230900</v>
+      </c>
+      <c r="F30" s="5">
+        <v>359230900</v>
+      </c>
+      <c r="G30" s="5">
+        <v>358943529</v>
+      </c>
+      <c r="H30" s="5">
+        <v>358335569</v>
+      </c>
+      <c r="I30" s="7">
+        <v>456517951</v>
+      </c>
+      <c r="J30" s="7">
+        <v>456862459</v>
+      </c>
+      <c r="K30" s="7">
+        <v>448834377</v>
+      </c>
+      <c r="L30" s="7">
+        <v>446902602</v>
+      </c>
+      <c r="M30" s="7">
+        <v>446065218</v>
+      </c>
+      <c r="N30" s="7">
+        <v>446019402</v>
+      </c>
+      <c r="O30" s="7">
+        <v>444536640</v>
+      </c>
+      <c r="P30" s="14">
+        <f t="shared" si="0"/>
+        <v>0.98387594377729715</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="1"/>
+        <v>0.97626625522321586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5">
+        <v>4305578000</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3840280984</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3759461887</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3752065756</v>
+      </c>
+      <c r="F31" s="5">
+        <v>3752065756</v>
+      </c>
+      <c r="G31" s="5">
+        <v>3751255363</v>
+      </c>
+      <c r="H31" s="5">
+        <v>3747430581</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4474653368</v>
+      </c>
+      <c r="J31" s="7">
+        <v>4358360723</v>
+      </c>
+      <c r="K31" s="7">
+        <v>4269163554</v>
+      </c>
+      <c r="L31" s="7">
+        <v>4267995737</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4267650020</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4266995079</v>
+      </c>
+      <c r="O31" s="7">
+        <v>4264829176</v>
+      </c>
+      <c r="P31" s="14">
+        <f t="shared" si="0"/>
+        <v>0.97681794083013385</v>
+      </c>
+      <c r="Q31" s="15">
+        <f t="shared" si="1"/>
+        <v>0.97903669526071024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/G_1816.xlsx
+++ b/data/G_1816.xlsx
@@ -16,8 +16,8 @@
     <sheet name="modelo2" sheetId="2" r:id="rId2"/>
     <sheet name="exploracionCATEGORICAModelo1" sheetId="5" r:id="rId3"/>
     <sheet name="exploracionNUMERICAModelo1" sheetId="6" r:id="rId4"/>
-    <sheet name="correlacionModelo1" sheetId="3" r:id="rId5"/>
-    <sheet name="diferenciaMediasModelo1" sheetId="7" r:id="rId6"/>
+    <sheet name="diferenciaMediasModelo1" sheetId="7" r:id="rId5"/>
+    <sheet name="correlacionModelo1" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="avance16">#REF!</definedName>
@@ -1012,11 +1012,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2011880432"/>
-        <c:axId val="1762400704"/>
+        <c:axId val="1778539440"/>
+        <c:axId val="1783443072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2011880432"/>
+        <c:axId val="1778539440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1762400704"/>
+        <c:crossAx val="1783443072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,7 +1067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1762400704"/>
+        <c:axId val="1783443072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,6 +1087,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1117,7 +1118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011880432"/>
+        <c:crossAx val="1778539440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,11 +1482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1783525216"/>
-        <c:axId val="-2056237408"/>
+        <c:axId val="1788892432"/>
+        <c:axId val="1859820416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1783525216"/>
+        <c:axId val="1788892432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,12 +1543,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056237408"/>
+        <c:crossAx val="1859820416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2056237408"/>
+        <c:axId val="1859820416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783525216"/>
+        <c:crossAx val="1788892432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10745,1762 +10746,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="61.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1625414860</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2024038576</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1722658272</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1705139733</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1705139733</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1704811508</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1698269491</v>
-      </c>
-      <c r="I2" s="6">
-        <v>8767049949</v>
-      </c>
-      <c r="J2" s="6">
-        <v>7241596982</v>
-      </c>
-      <c r="K2" s="6">
-        <v>5359090659</v>
-      </c>
-      <c r="L2" s="6">
-        <v>5311970920</v>
-      </c>
-      <c r="M2" s="6">
-        <v>5305013225</v>
-      </c>
-      <c r="N2" s="6">
-        <v>5304882546</v>
-      </c>
-      <c r="O2" s="6">
-        <v>5301352967</v>
-      </c>
-      <c r="P2" s="14">
-        <f>G2/C2</f>
-        <v>0.84228212259132362</v>
-      </c>
-      <c r="Q2" s="15">
-        <f>N2/J2</f>
-        <v>0.73255699801936314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5">
-        <v>447734273</v>
-      </c>
-      <c r="C3" s="5">
-        <v>542961434</v>
-      </c>
-      <c r="D3" s="5">
-        <v>489318337</v>
-      </c>
-      <c r="E3" s="5">
-        <v>487710623</v>
-      </c>
-      <c r="F3" s="5">
-        <v>487710623</v>
-      </c>
-      <c r="G3" s="5">
-        <v>487547317</v>
-      </c>
-      <c r="H3" s="5">
-        <v>487213709</v>
-      </c>
-      <c r="I3" s="7">
-        <v>592575661</v>
-      </c>
-      <c r="J3" s="7">
-        <v>619462643</v>
-      </c>
-      <c r="K3" s="7">
-        <v>592458951</v>
-      </c>
-      <c r="L3" s="7">
-        <v>587857394</v>
-      </c>
-      <c r="M3" s="7">
-        <v>583907096</v>
-      </c>
-      <c r="N3" s="7">
-        <v>583623325</v>
-      </c>
-      <c r="O3" s="7">
-        <v>583148084</v>
-      </c>
-      <c r="P3" s="14">
-        <f t="shared" ref="P3:P31" si="0">G3/C3</f>
-        <v>0.89794097051835908</v>
-      </c>
-      <c r="Q3" s="15">
-        <f t="shared" ref="Q3:Q31" si="1">N3/J3</f>
-        <v>0.94214450474941713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1820524120</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2123804552</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2105135711</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2086922677</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2086922658</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2086238254</v>
-      </c>
-      <c r="H4" s="5">
-        <v>2081237451</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2290317387</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2487324456</v>
-      </c>
-      <c r="K4" s="7">
-        <v>2472976071</v>
-      </c>
-      <c r="L4" s="7">
-        <v>2468159670</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2466465269</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2382635784</v>
-      </c>
-      <c r="O4" s="7">
-        <v>2378790085</v>
-      </c>
-      <c r="P4" s="14">
-        <f t="shared" si="0"/>
-        <v>0.98231179137241065</v>
-      </c>
-      <c r="Q4" s="15">
-        <f t="shared" si="1"/>
-        <v>0.95791113147805595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
-        <v>522827961</v>
-      </c>
-      <c r="C5" s="5">
-        <v>648580409</v>
-      </c>
-      <c r="D5" s="5">
-        <v>535924055</v>
-      </c>
-      <c r="E5" s="5">
-        <v>525306776</v>
-      </c>
-      <c r="F5" s="5">
-        <v>525306776</v>
-      </c>
-      <c r="G5" s="5">
-        <v>525216579</v>
-      </c>
-      <c r="H5" s="5">
-        <v>524104420</v>
-      </c>
-      <c r="I5" s="7">
-        <v>606341696</v>
-      </c>
-      <c r="J5" s="7">
-        <v>681740039</v>
-      </c>
-      <c r="K5" s="7">
-        <v>636558153</v>
-      </c>
-      <c r="L5" s="7">
-        <v>631374230</v>
-      </c>
-      <c r="M5" s="7">
-        <v>626329629</v>
-      </c>
-      <c r="N5" s="7">
-        <v>624350365</v>
-      </c>
-      <c r="O5" s="7">
-        <v>624115079</v>
-      </c>
-      <c r="P5" s="14">
-        <f t="shared" si="0"/>
-        <v>0.80979408522344065</v>
-      </c>
-      <c r="Q5" s="15">
-        <f t="shared" si="1"/>
-        <v>0.91581883017435628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1871476842</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1743582602</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1497281078</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1490689015</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1490689015</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1490465995</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1490165445</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1928442376</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2166955714</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1983783584</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1969232137</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1814836684</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1729760524</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1729255362</v>
-      </c>
-      <c r="P6" s="14">
-        <f t="shared" si="0"/>
-        <v>0.85482958667420794</v>
-      </c>
-      <c r="Q6" s="15">
-        <f t="shared" si="1"/>
-        <v>0.79824452010005409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5">
-        <v>8791456124</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10512189064</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10117245189</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10098576644</v>
-      </c>
-      <c r="F7" s="5">
-        <v>10098576644</v>
-      </c>
-      <c r="G7" s="5">
-        <v>10084091030</v>
-      </c>
-      <c r="H7" s="5">
-        <v>10040198026</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10195546120</v>
-      </c>
-      <c r="J7" s="7">
-        <v>11296451326</v>
-      </c>
-      <c r="K7" s="7">
-        <v>10963265614</v>
-      </c>
-      <c r="L7" s="7">
-        <v>10888036612</v>
-      </c>
-      <c r="M7" s="7">
-        <v>10885938788</v>
-      </c>
-      <c r="N7" s="7">
-        <v>10884199689</v>
-      </c>
-      <c r="O7" s="7">
-        <v>10881042737</v>
-      </c>
-      <c r="P7" s="14">
-        <f t="shared" si="0"/>
-        <v>0.9592760336221442</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="1"/>
-        <v>0.9635060936303812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>589166149</v>
-      </c>
-      <c r="C8" s="5">
-        <v>955585570</v>
-      </c>
-      <c r="D8" s="5">
-        <v>925392206</v>
-      </c>
-      <c r="E8" s="5">
-        <v>903515033</v>
-      </c>
-      <c r="F8" s="5">
-        <v>903515033</v>
-      </c>
-      <c r="G8" s="5">
-        <v>903347585</v>
-      </c>
-      <c r="H8" s="5">
-        <v>900817317</v>
-      </c>
-      <c r="I8" s="7">
-        <v>812800796</v>
-      </c>
-      <c r="J8" s="7">
-        <v>887225987</v>
-      </c>
-      <c r="K8" s="7">
-        <v>854485636</v>
-      </c>
-      <c r="L8" s="7">
-        <v>847659451</v>
-      </c>
-      <c r="M8" s="7">
-        <v>847659451</v>
-      </c>
-      <c r="N8" s="7">
-        <v>847624507</v>
-      </c>
-      <c r="O8" s="7">
-        <v>846962417</v>
-      </c>
-      <c r="P8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.94533405836172268</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="1"/>
-        <v>0.95536483310874887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5">
-        <v>29131668240</v>
-      </c>
-      <c r="C9" s="5">
-        <v>23521643481</v>
-      </c>
-      <c r="D9" s="5">
-        <v>20846177931</v>
-      </c>
-      <c r="E9" s="5">
-        <v>20738626991</v>
-      </c>
-      <c r="F9" s="5">
-        <v>20738551414</v>
-      </c>
-      <c r="G9" s="5">
-        <v>20738246623</v>
-      </c>
-      <c r="H9" s="5">
-        <v>20733758304</v>
-      </c>
-      <c r="I9" s="7">
-        <v>25178974136</v>
-      </c>
-      <c r="J9" s="7">
-        <v>23817079535</v>
-      </c>
-      <c r="K9" s="7">
-        <v>22162033824</v>
-      </c>
-      <c r="L9" s="7">
-        <v>22022992846</v>
-      </c>
-      <c r="M9" s="7">
-        <v>22022279836</v>
-      </c>
-      <c r="N9" s="7">
-        <v>22017982172</v>
-      </c>
-      <c r="O9" s="7">
-        <v>21995689133</v>
-      </c>
-      <c r="P9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.88166656550813149</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" si="1"/>
-        <v>0.92446188205585134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5">
-        <v>16079101198</v>
-      </c>
-      <c r="C10" s="5">
-        <v>12767861642</v>
-      </c>
-      <c r="D10" s="5">
-        <v>11591353393</v>
-      </c>
-      <c r="E10" s="5">
-        <v>11206273956</v>
-      </c>
-      <c r="F10" s="5">
-        <v>11206163500</v>
-      </c>
-      <c r="G10" s="5">
-        <v>11175623678</v>
-      </c>
-      <c r="H10" s="5">
-        <v>11163468591</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14232558127</v>
-      </c>
-      <c r="J10" s="7">
-        <v>11752676269</v>
-      </c>
-      <c r="K10" s="7">
-        <v>10984001400</v>
-      </c>
-      <c r="L10" s="7">
-        <v>10611628446</v>
-      </c>
-      <c r="M10" s="7">
-        <v>10486437209</v>
-      </c>
-      <c r="N10" s="7">
-        <v>10454357496</v>
-      </c>
-      <c r="O10" s="7">
-        <v>10424825119</v>
-      </c>
-      <c r="P10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.87529329431622926</v>
-      </c>
-      <c r="Q10" s="15">
-        <f t="shared" si="1"/>
-        <v>0.88952994677267072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5">
-        <v>8197106439</v>
-      </c>
-      <c r="C11" s="5">
-        <v>7430295255</v>
-      </c>
-      <c r="D11" s="5">
-        <v>7122230545</v>
-      </c>
-      <c r="E11" s="5">
-        <v>7021601472</v>
-      </c>
-      <c r="F11" s="5">
-        <v>7021597842</v>
-      </c>
-      <c r="G11" s="5">
-        <v>7013773303</v>
-      </c>
-      <c r="H11" s="5">
-        <v>7006605407</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9918585442</v>
-      </c>
-      <c r="J11" s="7">
-        <v>9370578946</v>
-      </c>
-      <c r="K11" s="7">
-        <v>8970780721</v>
-      </c>
-      <c r="L11" s="7">
-        <v>8861226098</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8749550492</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8717774804</v>
-      </c>
-      <c r="O11" s="7">
-        <v>8716168113</v>
-      </c>
-      <c r="P11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.94394274551610668</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="1"/>
-        <v>0.930334705490245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5">
-        <v>305284585</v>
-      </c>
-      <c r="C12" s="5">
-        <v>330752523</v>
-      </c>
-      <c r="D12" s="5">
-        <v>320391800</v>
-      </c>
-      <c r="E12" s="5">
-        <v>318788679</v>
-      </c>
-      <c r="F12" s="5">
-        <v>318788679</v>
-      </c>
-      <c r="G12" s="5">
-        <v>318674610</v>
-      </c>
-      <c r="H12" s="5">
-        <v>318410551</v>
-      </c>
-      <c r="I12" s="7">
-        <v>551944786</v>
-      </c>
-      <c r="J12" s="7">
-        <v>519227956</v>
-      </c>
-      <c r="K12" s="7">
-        <v>456456276</v>
-      </c>
-      <c r="L12" s="7">
-        <v>453410077</v>
-      </c>
-      <c r="M12" s="7">
-        <v>451909792</v>
-      </c>
-      <c r="N12" s="7">
-        <v>450133845</v>
-      </c>
-      <c r="O12" s="7">
-        <v>448219876</v>
-      </c>
-      <c r="P12" s="14">
-        <f t="shared" si="0"/>
-        <v>0.96348353478773008</v>
-      </c>
-      <c r="Q12" s="15">
-        <f t="shared" si="1"/>
-        <v>0.86692913930851601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2014240219</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2287141902</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1954757798</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1924936511</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1924936290</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1919812281</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1878134171</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2038570387</v>
-      </c>
-      <c r="J13" s="7">
-        <v>2802674788</v>
-      </c>
-      <c r="K13" s="7">
-        <v>2613581786</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2257125748</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2197417692</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2190522857</v>
-      </c>
-      <c r="O13" s="7">
-        <v>2178609288</v>
-      </c>
-      <c r="P13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.83939360269741581</v>
-      </c>
-      <c r="Q13" s="15">
-        <f t="shared" si="1"/>
-        <v>0.78158296009904382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5">
-        <v>570528169</v>
-      </c>
-      <c r="C14" s="5">
-        <v>896889925</v>
-      </c>
-      <c r="D14" s="5">
-        <v>771506823</v>
-      </c>
-      <c r="E14" s="5">
-        <v>763883586</v>
-      </c>
-      <c r="F14" s="5">
-        <v>763883586</v>
-      </c>
-      <c r="G14" s="5">
-        <v>763875533</v>
-      </c>
-      <c r="H14" s="5">
-        <v>762772804</v>
-      </c>
-      <c r="I14" s="7">
-        <v>892047712</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1656481662</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1578629472</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1547562354</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1547253606</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1546994183</v>
-      </c>
-      <c r="O14" s="7">
-        <v>1546794735</v>
-      </c>
-      <c r="P14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.85169373822545724</v>
-      </c>
-      <c r="Q14" s="15">
-        <f t="shared" si="1"/>
-        <v>0.93390359729801831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5">
-        <v>484207204</v>
-      </c>
-      <c r="C15" s="5">
-        <v>511393528</v>
-      </c>
-      <c r="D15" s="5">
-        <v>499116377</v>
-      </c>
-      <c r="E15" s="5">
-        <v>494271953</v>
-      </c>
-      <c r="F15" s="5">
-        <v>494271953</v>
-      </c>
-      <c r="G15" s="5">
-        <v>494213505</v>
-      </c>
-      <c r="H15" s="5">
-        <v>493843596</v>
-      </c>
-      <c r="I15" s="7">
-        <v>537686900</v>
-      </c>
-      <c r="J15" s="7">
-        <v>669586761</v>
-      </c>
-      <c r="K15" s="7">
-        <v>600661576</v>
-      </c>
-      <c r="L15" s="7">
-        <v>586945235</v>
-      </c>
-      <c r="M15" s="7">
-        <v>572641353</v>
-      </c>
-      <c r="N15" s="7">
-        <v>572233431</v>
-      </c>
-      <c r="O15" s="7">
-        <v>571126613</v>
-      </c>
-      <c r="P15" s="14">
-        <f t="shared" si="0"/>
-        <v>0.96640547433756341</v>
-      </c>
-      <c r="Q15" s="15">
-        <f t="shared" si="1"/>
-        <v>0.85460684758072747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5">
-        <v>58767788</v>
-      </c>
-      <c r="C16" s="5">
-        <v>61885045</v>
-      </c>
-      <c r="D16" s="5">
-        <v>59586864</v>
-      </c>
-      <c r="E16" s="5">
-        <v>59546709</v>
-      </c>
-      <c r="F16" s="5">
-        <v>59546709</v>
-      </c>
-      <c r="G16" s="5">
-        <v>59546709</v>
-      </c>
-      <c r="H16" s="5">
-        <v>59522639</v>
-      </c>
-      <c r="I16" s="7">
-        <v>65145000</v>
-      </c>
-      <c r="J16" s="7">
-        <v>72443571</v>
-      </c>
-      <c r="K16" s="7">
-        <v>71393385</v>
-      </c>
-      <c r="L16" s="7">
-        <v>71320404</v>
-      </c>
-      <c r="M16" s="7">
-        <v>71320404</v>
-      </c>
-      <c r="N16" s="7">
-        <v>71317194</v>
-      </c>
-      <c r="O16" s="7">
-        <v>71300215</v>
-      </c>
-      <c r="P16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.96221484528289514</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="1"/>
-        <v>0.98445166376461479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="5">
-        <v>48392745</v>
-      </c>
-      <c r="C17" s="5">
-        <v>58488564</v>
-      </c>
-      <c r="D17" s="5">
-        <v>47311738</v>
-      </c>
-      <c r="E17" s="5">
-        <v>47295180</v>
-      </c>
-      <c r="F17" s="5">
-        <v>47295180</v>
-      </c>
-      <c r="G17" s="5">
-        <v>47282482</v>
-      </c>
-      <c r="H17" s="5">
-        <v>47267796</v>
-      </c>
-      <c r="I17" s="7">
-        <v>29008000</v>
-      </c>
-      <c r="J17" s="7">
-        <v>39920288</v>
-      </c>
-      <c r="K17" s="7">
-        <v>37917896</v>
-      </c>
-      <c r="L17" s="7">
-        <v>37917735</v>
-      </c>
-      <c r="M17" s="7">
-        <v>36561955</v>
-      </c>
-      <c r="N17" s="7">
-        <v>36559238</v>
-      </c>
-      <c r="O17" s="7">
-        <v>36556988</v>
-      </c>
-      <c r="P17" s="14">
-        <f t="shared" si="0"/>
-        <v>0.80840558848392996</v>
-      </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="1"/>
-        <v>0.91580596813329607</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1505347082</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1634572569</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1599020297</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1582304867</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1582304867</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1582071753</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1578512586</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1824408000</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1940619713</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1932676631</v>
-      </c>
-      <c r="L18" s="7">
-        <v>1932547043</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1932545704</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1925717347</v>
-      </c>
-      <c r="O18" s="7">
-        <v>1921423768</v>
-      </c>
-      <c r="P18" s="14">
-        <f t="shared" si="0"/>
-        <v>0.96788101244589042</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="1"/>
-        <v>0.99232082107577768</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="5">
-        <v>42967000</v>
-      </c>
-      <c r="C19" s="5">
-        <v>53548462</v>
-      </c>
-      <c r="D19" s="5">
-        <v>50661544</v>
-      </c>
-      <c r="E19" s="5">
-        <v>49918634</v>
-      </c>
-      <c r="F19" s="5">
-        <v>49918634</v>
-      </c>
-      <c r="G19" s="5">
-        <v>49911240</v>
-      </c>
-      <c r="H19" s="5">
-        <v>49873706</v>
-      </c>
-      <c r="I19" s="7">
-        <v>39273000</v>
-      </c>
-      <c r="J19" s="7">
-        <v>42623551</v>
-      </c>
-      <c r="K19" s="7">
-        <v>39944183</v>
-      </c>
-      <c r="L19" s="7">
-        <v>39777724</v>
-      </c>
-      <c r="M19" s="7">
-        <v>39760568</v>
-      </c>
-      <c r="N19" s="7">
-        <v>39760568</v>
-      </c>
-      <c r="O19" s="7">
-        <v>39755824</v>
-      </c>
-      <c r="P19" s="14">
-        <f t="shared" si="0"/>
-        <v>0.93207606971046153</v>
-      </c>
-      <c r="Q19" s="15">
-        <f t="shared" si="1"/>
-        <v>0.93283096004835453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="5">
-        <v>7596677556</v>
-      </c>
-      <c r="C20" s="5">
-        <v>9009435584</v>
-      </c>
-      <c r="D20" s="5">
-        <v>8379762292</v>
-      </c>
-      <c r="E20" s="5">
-        <v>8245478134</v>
-      </c>
-      <c r="F20" s="5">
-        <v>8245465429</v>
-      </c>
-      <c r="G20" s="5">
-        <v>8238711552</v>
-      </c>
-      <c r="H20" s="5">
-        <v>8236185347</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7600413770</v>
-      </c>
-      <c r="J20" s="7">
-        <v>8498254914</v>
-      </c>
-      <c r="K20" s="7">
-        <v>8309698911</v>
-      </c>
-      <c r="L20" s="7">
-        <v>8204549363</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8099542917</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8091362420</v>
-      </c>
-      <c r="O20" s="7">
-        <v>8088160129</v>
-      </c>
-      <c r="P20" s="14">
-        <f t="shared" si="0"/>
-        <v>0.91445368305105135</v>
-      </c>
-      <c r="Q20" s="15">
-        <f t="shared" si="1"/>
-        <v>0.95212046495220015</v>
-      </c>
-      <c r="S20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T20">
-        <f>PEARSON(P2:P31,Q2:Q31)</f>
-        <v>0.60504549867372726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="5">
-        <v>13765000</v>
-      </c>
-      <c r="C21" s="5">
-        <v>20871130</v>
-      </c>
-      <c r="D21" s="5">
-        <v>19854288</v>
-      </c>
-      <c r="E21" s="5">
-        <v>19854277</v>
-      </c>
-      <c r="F21" s="5">
-        <v>19854277</v>
-      </c>
-      <c r="G21" s="5">
-        <v>19786475</v>
-      </c>
-      <c r="H21" s="5">
-        <v>19774075</v>
-      </c>
-      <c r="I21" s="7">
-        <v>21255264</v>
-      </c>
-      <c r="J21" s="7">
-        <v>21754388</v>
-      </c>
-      <c r="K21" s="7">
-        <v>21708267</v>
-      </c>
-      <c r="L21" s="7">
-        <v>21708267</v>
-      </c>
-      <c r="M21" s="7">
-        <v>21708267</v>
-      </c>
-      <c r="N21" s="7">
-        <v>21703207</v>
-      </c>
-      <c r="O21" s="7">
-        <v>21703207</v>
-      </c>
-      <c r="P21" s="14">
-        <f t="shared" si="0"/>
-        <v>0.94803084452063691</v>
-      </c>
-      <c r="Q21" s="15">
-        <f t="shared" si="1"/>
-        <v>0.99764732522008892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="5">
-        <v>624824866</v>
-      </c>
-      <c r="C22" s="5">
-        <v>651461557</v>
-      </c>
-      <c r="D22" s="5">
-        <v>524650469</v>
-      </c>
-      <c r="E22" s="5">
-        <v>523788854</v>
-      </c>
-      <c r="F22" s="5">
-        <v>523788854</v>
-      </c>
-      <c r="G22" s="5">
-        <v>522541769</v>
-      </c>
-      <c r="H22" s="5">
-        <v>521747354</v>
-      </c>
-      <c r="I22" s="7">
-        <v>708032291</v>
-      </c>
-      <c r="J22" s="7">
-        <v>709777837</v>
-      </c>
-      <c r="K22" s="7">
-        <v>562249032</v>
-      </c>
-      <c r="L22" s="7">
-        <v>551053520</v>
-      </c>
-      <c r="M22" s="7">
-        <v>551053520</v>
-      </c>
-      <c r="N22" s="7">
-        <v>550915607</v>
-      </c>
-      <c r="O22" s="7">
-        <v>550087338</v>
-      </c>
-      <c r="P22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.80210683713452025</v>
-      </c>
-      <c r="Q22" s="15">
-        <f t="shared" si="1"/>
-        <v>0.77618034585095108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="5">
-        <v>147251120</v>
-      </c>
-      <c r="C23" s="5">
-        <v>169246249</v>
-      </c>
-      <c r="D23" s="5">
-        <v>163432368</v>
-      </c>
-      <c r="E23" s="5">
-        <v>163432316</v>
-      </c>
-      <c r="F23" s="5">
-        <v>163432316</v>
-      </c>
-      <c r="G23" s="5">
-        <v>163431482</v>
-      </c>
-      <c r="H23" s="5">
-        <v>163265319</v>
-      </c>
-      <c r="I23" s="7">
-        <v>43197978</v>
-      </c>
-      <c r="J23" s="7">
-        <v>208993846</v>
-      </c>
-      <c r="K23" s="7">
-        <v>194670232</v>
-      </c>
-      <c r="L23" s="7">
-        <v>194380626</v>
-      </c>
-      <c r="M23" s="7">
-        <v>194302252</v>
-      </c>
-      <c r="N23" s="7">
-        <v>194302252</v>
-      </c>
-      <c r="O23" s="7">
-        <v>191387293</v>
-      </c>
-      <c r="P23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.96564315584920291</v>
-      </c>
-      <c r="Q23" s="15">
-        <f t="shared" si="1"/>
-        <v>0.92970322197908162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="5">
-        <v>338220002</v>
-      </c>
-      <c r="C24" s="5">
-        <v>480913173</v>
-      </c>
-      <c r="D24" s="5">
-        <v>403740134</v>
-      </c>
-      <c r="E24" s="5">
-        <v>403672808</v>
-      </c>
-      <c r="F24" s="5">
-        <v>403672808</v>
-      </c>
-      <c r="G24" s="5">
-        <v>403568530</v>
-      </c>
-      <c r="H24" s="5">
-        <v>403537180</v>
-      </c>
-      <c r="I24" s="7">
-        <v>58642327</v>
-      </c>
-      <c r="J24" s="7">
-        <v>565056032</v>
-      </c>
-      <c r="K24" s="7">
-        <v>517644708</v>
-      </c>
-      <c r="L24" s="7">
-        <v>512754943</v>
-      </c>
-      <c r="M24" s="7">
-        <v>512754943</v>
-      </c>
-      <c r="N24" s="7">
-        <v>511572343</v>
-      </c>
-      <c r="O24" s="7">
-        <v>507132161</v>
-      </c>
-      <c r="P24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.83917129464864959</v>
-      </c>
-      <c r="Q24" s="15">
-        <f t="shared" si="1"/>
-        <v>0.90534799033877056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="5">
-        <v>280049870</v>
-      </c>
-      <c r="C25" s="5">
-        <v>353301038</v>
-      </c>
-      <c r="D25" s="5">
-        <v>331120406</v>
-      </c>
-      <c r="E25" s="5">
-        <v>331045227</v>
-      </c>
-      <c r="F25" s="5">
-        <v>331045227</v>
-      </c>
-      <c r="G25" s="5">
-        <v>330625362</v>
-      </c>
-      <c r="H25" s="5">
-        <v>330179823</v>
-      </c>
-      <c r="I25" s="7">
-        <v>367053258</v>
-      </c>
-      <c r="J25" s="7">
-        <v>478975262</v>
-      </c>
-      <c r="K25" s="7">
-        <v>401125963</v>
-      </c>
-      <c r="L25" s="7">
-        <v>392327748</v>
-      </c>
-      <c r="M25" s="7">
-        <v>392329918</v>
-      </c>
-      <c r="N25" s="7">
-        <v>392298191</v>
-      </c>
-      <c r="O25" s="7">
-        <v>391669161</v>
-      </c>
-      <c r="P25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.93581769210652588</v>
-      </c>
-      <c r="Q25" s="15">
-        <f t="shared" si="1"/>
-        <v>0.81903643491299971</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="5">
-        <v>505283712</v>
-      </c>
-      <c r="C26" s="5">
-        <v>537021774</v>
-      </c>
-      <c r="D26" s="5">
-        <v>501466024</v>
-      </c>
-      <c r="E26" s="5">
-        <v>497150911</v>
-      </c>
-      <c r="F26" s="5">
-        <v>497150911</v>
-      </c>
-      <c r="G26" s="5">
-        <v>497119895</v>
-      </c>
-      <c r="H26" s="5">
-        <v>495025214</v>
-      </c>
-      <c r="I26" s="7">
-        <v>599132410</v>
-      </c>
-      <c r="J26" s="7">
-        <v>642820599</v>
-      </c>
-      <c r="K26" s="7">
-        <v>574358338</v>
-      </c>
-      <c r="L26" s="7">
-        <v>569908876</v>
-      </c>
-      <c r="M26" s="7">
-        <v>566909820</v>
-      </c>
-      <c r="N26" s="7">
-        <v>566827287</v>
-      </c>
-      <c r="O26" s="7">
-        <v>565340009</v>
-      </c>
-      <c r="P26" s="14">
-        <f t="shared" si="0"/>
-        <v>0.92569783771933245</v>
-      </c>
-      <c r="Q26" s="15">
-        <f t="shared" si="1"/>
-        <v>0.88178146108227007</v>
-      </c>
-      <c r="V26" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="5">
-        <v>10284800359</v>
-      </c>
-      <c r="C27" s="5">
-        <v>10740402592</v>
-      </c>
-      <c r="D27" s="5">
-        <v>9650714904</v>
-      </c>
-      <c r="E27" s="5">
-        <v>9024701764</v>
-      </c>
-      <c r="F27" s="5">
-        <v>9024701764</v>
-      </c>
-      <c r="G27" s="5">
-        <v>8985887192</v>
-      </c>
-      <c r="H27" s="5">
-        <v>8973458494</v>
-      </c>
-      <c r="I27" s="7">
-        <v>14278377405</v>
-      </c>
-      <c r="J27" s="7">
-        <v>11701399770</v>
-      </c>
-      <c r="K27" s="7">
-        <v>10914026757</v>
-      </c>
-      <c r="L27" s="7">
-        <v>10623304160</v>
-      </c>
-      <c r="M27" s="7">
-        <v>10379421268</v>
-      </c>
-      <c r="N27" s="7">
-        <v>10375601238</v>
-      </c>
-      <c r="O27" s="7">
-        <v>10363223935</v>
-      </c>
-      <c r="P27" s="14">
-        <f t="shared" si="0"/>
-        <v>0.83664342328220986</v>
-      </c>
-      <c r="Q27" s="15">
-        <f t="shared" si="1"/>
-        <v>0.88669744149763374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="5">
-        <v>4994365078</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2478207482</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2091212583</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2039396196</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2039396196</v>
-      </c>
-      <c r="G28" s="5">
-        <v>2038210653</v>
-      </c>
-      <c r="H28" s="5">
-        <v>2022902732</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5427910973</v>
-      </c>
-      <c r="J28" s="7">
-        <v>5135913677</v>
-      </c>
-      <c r="K28" s="7">
-        <v>4459068435</v>
-      </c>
-      <c r="L28" s="7">
-        <v>4146086092</v>
-      </c>
-      <c r="M28" s="7">
-        <v>4083735856</v>
-      </c>
-      <c r="N28" s="7">
-        <v>4075019065</v>
-      </c>
-      <c r="O28" s="7">
-        <v>4071740999</v>
-      </c>
-      <c r="P28" s="14">
-        <f t="shared" si="0"/>
-        <v>0.82245359511024185</v>
-      </c>
-      <c r="Q28" s="15">
-        <f t="shared" si="1"/>
-        <v>0.79343605077496326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="5">
-        <v>745729283</v>
-      </c>
-      <c r="C29" s="5">
-        <v>816729717</v>
-      </c>
-      <c r="D29" s="5">
-        <v>685239206</v>
-      </c>
-      <c r="E29" s="5">
-        <v>649900830</v>
-      </c>
-      <c r="F29" s="5">
-        <v>649900830</v>
-      </c>
-      <c r="G29" s="5">
-        <v>649875257</v>
-      </c>
-      <c r="H29" s="5">
-        <v>647699364</v>
-      </c>
-      <c r="I29" s="7">
-        <v>845421997</v>
-      </c>
-      <c r="J29" s="7">
-        <v>911804592</v>
-      </c>
-      <c r="K29" s="7">
-        <v>780210737</v>
-      </c>
-      <c r="L29" s="7">
-        <v>772974378</v>
-      </c>
-      <c r="M29" s="7">
-        <v>766666719</v>
-      </c>
-      <c r="N29" s="7">
-        <v>764555174</v>
-      </c>
-      <c r="O29" s="7">
-        <v>763021317</v>
-      </c>
-      <c r="P29" s="14">
-        <f t="shared" si="0"/>
-        <v>0.79570418888039551</v>
-      </c>
-      <c r="Q29" s="15">
-        <f t="shared" si="1"/>
-        <v>0.83850770297502519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="5">
-        <v>361205344</v>
-      </c>
-      <c r="C30" s="5">
-        <v>364826004</v>
-      </c>
-      <c r="D30" s="5">
-        <v>360133511</v>
-      </c>
-      <c r="E30" s="5">
-        <v>359230900</v>
-      </c>
-      <c r="F30" s="5">
-        <v>359230900</v>
-      </c>
-      <c r="G30" s="5">
-        <v>358943529</v>
-      </c>
-      <c r="H30" s="5">
-        <v>358335569</v>
-      </c>
-      <c r="I30" s="7">
-        <v>456517951</v>
-      </c>
-      <c r="J30" s="7">
-        <v>456862459</v>
-      </c>
-      <c r="K30" s="7">
-        <v>448834377</v>
-      </c>
-      <c r="L30" s="7">
-        <v>446902602</v>
-      </c>
-      <c r="M30" s="7">
-        <v>446065218</v>
-      </c>
-      <c r="N30" s="7">
-        <v>446019402</v>
-      </c>
-      <c r="O30" s="7">
-        <v>444536640</v>
-      </c>
-      <c r="P30" s="14">
-        <f t="shared" si="0"/>
-        <v>0.98387594377729715</v>
-      </c>
-      <c r="Q30" s="15">
-        <f t="shared" si="1"/>
-        <v>0.97626625522321586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="5">
-        <v>4305578000</v>
-      </c>
-      <c r="C31" s="5">
-        <v>3840280984</v>
-      </c>
-      <c r="D31" s="5">
-        <v>3759461887</v>
-      </c>
-      <c r="E31" s="5">
-        <v>3752065756</v>
-      </c>
-      <c r="F31" s="5">
-        <v>3752065756</v>
-      </c>
-      <c r="G31" s="5">
-        <v>3751255363</v>
-      </c>
-      <c r="H31" s="5">
-        <v>3747430581</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4474653368</v>
-      </c>
-      <c r="J31" s="7">
-        <v>4358360723</v>
-      </c>
-      <c r="K31" s="7">
-        <v>4269163554</v>
-      </c>
-      <c r="L31" s="7">
-        <v>4267995737</v>
-      </c>
-      <c r="M31" s="7">
-        <v>4267650020</v>
-      </c>
-      <c r="N31" s="7">
-        <v>4266995079</v>
-      </c>
-      <c r="O31" s="7">
-        <v>4264829176</v>
-      </c>
-      <c r="P31" s="14">
-        <f t="shared" si="0"/>
-        <v>0.97681794083013385</v>
-      </c>
-      <c r="Q31" s="15">
-        <f t="shared" si="1"/>
-        <v>0.97903669526071024</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="P32" s="14"/>
-      <c r="Q32" s="15"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="V26" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -14370,4 +12618,1757 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1625414860</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2024038576</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1722658272</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1705139733</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1705139733</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1704811508</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1698269491</v>
+      </c>
+      <c r="I2" s="6">
+        <v>8767049949</v>
+      </c>
+      <c r="J2" s="6">
+        <v>7241596982</v>
+      </c>
+      <c r="K2" s="6">
+        <v>5359090659</v>
+      </c>
+      <c r="L2" s="6">
+        <v>5311970920</v>
+      </c>
+      <c r="M2" s="6">
+        <v>5305013225</v>
+      </c>
+      <c r="N2" s="6">
+        <v>5304882546</v>
+      </c>
+      <c r="O2" s="6">
+        <v>5301352967</v>
+      </c>
+      <c r="P2" s="14">
+        <f>G2/C2</f>
+        <v>0.84228212259132362</v>
+      </c>
+      <c r="Q2" s="15">
+        <f>N2/J2</f>
+        <v>0.73255699801936314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5">
+        <v>447734273</v>
+      </c>
+      <c r="C3" s="5">
+        <v>542961434</v>
+      </c>
+      <c r="D3" s="5">
+        <v>489318337</v>
+      </c>
+      <c r="E3" s="5">
+        <v>487710623</v>
+      </c>
+      <c r="F3" s="5">
+        <v>487710623</v>
+      </c>
+      <c r="G3" s="5">
+        <v>487547317</v>
+      </c>
+      <c r="H3" s="5">
+        <v>487213709</v>
+      </c>
+      <c r="I3" s="7">
+        <v>592575661</v>
+      </c>
+      <c r="J3" s="7">
+        <v>619462643</v>
+      </c>
+      <c r="K3" s="7">
+        <v>592458951</v>
+      </c>
+      <c r="L3" s="7">
+        <v>587857394</v>
+      </c>
+      <c r="M3" s="7">
+        <v>583907096</v>
+      </c>
+      <c r="N3" s="7">
+        <v>583623325</v>
+      </c>
+      <c r="O3" s="7">
+        <v>583148084</v>
+      </c>
+      <c r="P3" s="14">
+        <f t="shared" ref="P3:P31" si="0">G3/C3</f>
+        <v>0.89794097051835908</v>
+      </c>
+      <c r="Q3" s="15">
+        <f t="shared" ref="Q3:Q31" si="1">N3/J3</f>
+        <v>0.94214450474941713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1820524120</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2123804552</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2105135711</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2086922677</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2086922658</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2086238254</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2081237451</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2290317387</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2487324456</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2472976071</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2468159670</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2466465269</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2382635784</v>
+      </c>
+      <c r="O4" s="7">
+        <v>2378790085</v>
+      </c>
+      <c r="P4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.98231179137241065</v>
+      </c>
+      <c r="Q4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.95791113147805595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>522827961</v>
+      </c>
+      <c r="C5" s="5">
+        <v>648580409</v>
+      </c>
+      <c r="D5" s="5">
+        <v>535924055</v>
+      </c>
+      <c r="E5" s="5">
+        <v>525306776</v>
+      </c>
+      <c r="F5" s="5">
+        <v>525306776</v>
+      </c>
+      <c r="G5" s="5">
+        <v>525216579</v>
+      </c>
+      <c r="H5" s="5">
+        <v>524104420</v>
+      </c>
+      <c r="I5" s="7">
+        <v>606341696</v>
+      </c>
+      <c r="J5" s="7">
+        <v>681740039</v>
+      </c>
+      <c r="K5" s="7">
+        <v>636558153</v>
+      </c>
+      <c r="L5" s="7">
+        <v>631374230</v>
+      </c>
+      <c r="M5" s="7">
+        <v>626329629</v>
+      </c>
+      <c r="N5" s="7">
+        <v>624350365</v>
+      </c>
+      <c r="O5" s="7">
+        <v>624115079</v>
+      </c>
+      <c r="P5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.80979408522344065</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.91581883017435628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1871476842</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1743582602</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1497281078</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1490689015</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1490689015</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1490465995</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1490165445</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1928442376</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2166955714</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1983783584</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1969232137</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1814836684</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1729760524</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1729255362</v>
+      </c>
+      <c r="P6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.85482958667420794</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.79824452010005409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8791456124</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10512189064</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10117245189</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10098576644</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10098576644</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10084091030</v>
+      </c>
+      <c r="H7" s="5">
+        <v>10040198026</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10195546120</v>
+      </c>
+      <c r="J7" s="7">
+        <v>11296451326</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10963265614</v>
+      </c>
+      <c r="L7" s="7">
+        <v>10888036612</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10885938788</v>
+      </c>
+      <c r="N7" s="7">
+        <v>10884199689</v>
+      </c>
+      <c r="O7" s="7">
+        <v>10881042737</v>
+      </c>
+      <c r="P7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.9592760336221442</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.9635060936303812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>589166149</v>
+      </c>
+      <c r="C8" s="5">
+        <v>955585570</v>
+      </c>
+      <c r="D8" s="5">
+        <v>925392206</v>
+      </c>
+      <c r="E8" s="5">
+        <v>903515033</v>
+      </c>
+      <c r="F8" s="5">
+        <v>903515033</v>
+      </c>
+      <c r="G8" s="5">
+        <v>903347585</v>
+      </c>
+      <c r="H8" s="5">
+        <v>900817317</v>
+      </c>
+      <c r="I8" s="7">
+        <v>812800796</v>
+      </c>
+      <c r="J8" s="7">
+        <v>887225987</v>
+      </c>
+      <c r="K8" s="7">
+        <v>854485636</v>
+      </c>
+      <c r="L8" s="7">
+        <v>847659451</v>
+      </c>
+      <c r="M8" s="7">
+        <v>847659451</v>
+      </c>
+      <c r="N8" s="7">
+        <v>847624507</v>
+      </c>
+      <c r="O8" s="7">
+        <v>846962417</v>
+      </c>
+      <c r="P8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.94533405836172268</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.95536483310874887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>29131668240</v>
+      </c>
+      <c r="C9" s="5">
+        <v>23521643481</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20846177931</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20738626991</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20738551414</v>
+      </c>
+      <c r="G9" s="5">
+        <v>20738246623</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20733758304</v>
+      </c>
+      <c r="I9" s="7">
+        <v>25178974136</v>
+      </c>
+      <c r="J9" s="7">
+        <v>23817079535</v>
+      </c>
+      <c r="K9" s="7">
+        <v>22162033824</v>
+      </c>
+      <c r="L9" s="7">
+        <v>22022992846</v>
+      </c>
+      <c r="M9" s="7">
+        <v>22022279836</v>
+      </c>
+      <c r="N9" s="7">
+        <v>22017982172</v>
+      </c>
+      <c r="O9" s="7">
+        <v>21995689133</v>
+      </c>
+      <c r="P9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.88166656550813149</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.92446188205585134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>16079101198</v>
+      </c>
+      <c r="C10" s="5">
+        <v>12767861642</v>
+      </c>
+      <c r="D10" s="5">
+        <v>11591353393</v>
+      </c>
+      <c r="E10" s="5">
+        <v>11206273956</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11206163500</v>
+      </c>
+      <c r="G10" s="5">
+        <v>11175623678</v>
+      </c>
+      <c r="H10" s="5">
+        <v>11163468591</v>
+      </c>
+      <c r="I10" s="7">
+        <v>14232558127</v>
+      </c>
+      <c r="J10" s="7">
+        <v>11752676269</v>
+      </c>
+      <c r="K10" s="7">
+        <v>10984001400</v>
+      </c>
+      <c r="L10" s="7">
+        <v>10611628446</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10486437209</v>
+      </c>
+      <c r="N10" s="7">
+        <v>10454357496</v>
+      </c>
+      <c r="O10" s="7">
+        <v>10424825119</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.87529329431622926</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.88952994677267072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8197106439</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7430295255</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7122230545</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7021601472</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7021597842</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7013773303</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7006605407</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9918585442</v>
+      </c>
+      <c r="J11" s="7">
+        <v>9370578946</v>
+      </c>
+      <c r="K11" s="7">
+        <v>8970780721</v>
+      </c>
+      <c r="L11" s="7">
+        <v>8861226098</v>
+      </c>
+      <c r="M11" s="7">
+        <v>8749550492</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8717774804</v>
+      </c>
+      <c r="O11" s="7">
+        <v>8716168113</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.94394274551610668</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.930334705490245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <v>305284585</v>
+      </c>
+      <c r="C12" s="5">
+        <v>330752523</v>
+      </c>
+      <c r="D12" s="5">
+        <v>320391800</v>
+      </c>
+      <c r="E12" s="5">
+        <v>318788679</v>
+      </c>
+      <c r="F12" s="5">
+        <v>318788679</v>
+      </c>
+      <c r="G12" s="5">
+        <v>318674610</v>
+      </c>
+      <c r="H12" s="5">
+        <v>318410551</v>
+      </c>
+      <c r="I12" s="7">
+        <v>551944786</v>
+      </c>
+      <c r="J12" s="7">
+        <v>519227956</v>
+      </c>
+      <c r="K12" s="7">
+        <v>456456276</v>
+      </c>
+      <c r="L12" s="7">
+        <v>453410077</v>
+      </c>
+      <c r="M12" s="7">
+        <v>451909792</v>
+      </c>
+      <c r="N12" s="7">
+        <v>450133845</v>
+      </c>
+      <c r="O12" s="7">
+        <v>448219876</v>
+      </c>
+      <c r="P12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96348353478773008</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="1"/>
+        <v>0.86692913930851601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2014240219</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2287141902</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1954757798</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1924936511</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1924936290</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1919812281</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1878134171</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2038570387</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2802674788</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2613581786</v>
+      </c>
+      <c r="L13" s="7">
+        <v>2257125748</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2197417692</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2190522857</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2178609288</v>
+      </c>
+      <c r="P13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.83939360269741581</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.78158296009904382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5">
+        <v>570528169</v>
+      </c>
+      <c r="C14" s="5">
+        <v>896889925</v>
+      </c>
+      <c r="D14" s="5">
+        <v>771506823</v>
+      </c>
+      <c r="E14" s="5">
+        <v>763883586</v>
+      </c>
+      <c r="F14" s="5">
+        <v>763883586</v>
+      </c>
+      <c r="G14" s="5">
+        <v>763875533</v>
+      </c>
+      <c r="H14" s="5">
+        <v>762772804</v>
+      </c>
+      <c r="I14" s="7">
+        <v>892047712</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1656481662</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1578629472</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1547562354</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1547253606</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1546994183</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1546794735</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="0"/>
+        <v>0.85169373822545724</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="1"/>
+        <v>0.93390359729801831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5">
+        <v>484207204</v>
+      </c>
+      <c r="C15" s="5">
+        <v>511393528</v>
+      </c>
+      <c r="D15" s="5">
+        <v>499116377</v>
+      </c>
+      <c r="E15" s="5">
+        <v>494271953</v>
+      </c>
+      <c r="F15" s="5">
+        <v>494271953</v>
+      </c>
+      <c r="G15" s="5">
+        <v>494213505</v>
+      </c>
+      <c r="H15" s="5">
+        <v>493843596</v>
+      </c>
+      <c r="I15" s="7">
+        <v>537686900</v>
+      </c>
+      <c r="J15" s="7">
+        <v>669586761</v>
+      </c>
+      <c r="K15" s="7">
+        <v>600661576</v>
+      </c>
+      <c r="L15" s="7">
+        <v>586945235</v>
+      </c>
+      <c r="M15" s="7">
+        <v>572641353</v>
+      </c>
+      <c r="N15" s="7">
+        <v>572233431</v>
+      </c>
+      <c r="O15" s="7">
+        <v>571126613</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96640547433756341</v>
+      </c>
+      <c r="Q15" s="15">
+        <f t="shared" si="1"/>
+        <v>0.85460684758072747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5">
+        <v>58767788</v>
+      </c>
+      <c r="C16" s="5">
+        <v>61885045</v>
+      </c>
+      <c r="D16" s="5">
+        <v>59586864</v>
+      </c>
+      <c r="E16" s="5">
+        <v>59546709</v>
+      </c>
+      <c r="F16" s="5">
+        <v>59546709</v>
+      </c>
+      <c r="G16" s="5">
+        <v>59546709</v>
+      </c>
+      <c r="H16" s="5">
+        <v>59522639</v>
+      </c>
+      <c r="I16" s="7">
+        <v>65145000</v>
+      </c>
+      <c r="J16" s="7">
+        <v>72443571</v>
+      </c>
+      <c r="K16" s="7">
+        <v>71393385</v>
+      </c>
+      <c r="L16" s="7">
+        <v>71320404</v>
+      </c>
+      <c r="M16" s="7">
+        <v>71320404</v>
+      </c>
+      <c r="N16" s="7">
+        <v>71317194</v>
+      </c>
+      <c r="O16" s="7">
+        <v>71300215</v>
+      </c>
+      <c r="P16" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96221484528289514</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="1"/>
+        <v>0.98445166376461479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5">
+        <v>48392745</v>
+      </c>
+      <c r="C17" s="5">
+        <v>58488564</v>
+      </c>
+      <c r="D17" s="5">
+        <v>47311738</v>
+      </c>
+      <c r="E17" s="5">
+        <v>47295180</v>
+      </c>
+      <c r="F17" s="5">
+        <v>47295180</v>
+      </c>
+      <c r="G17" s="5">
+        <v>47282482</v>
+      </c>
+      <c r="H17" s="5">
+        <v>47267796</v>
+      </c>
+      <c r="I17" s="7">
+        <v>29008000</v>
+      </c>
+      <c r="J17" s="7">
+        <v>39920288</v>
+      </c>
+      <c r="K17" s="7">
+        <v>37917896</v>
+      </c>
+      <c r="L17" s="7">
+        <v>37917735</v>
+      </c>
+      <c r="M17" s="7">
+        <v>36561955</v>
+      </c>
+      <c r="N17" s="7">
+        <v>36559238</v>
+      </c>
+      <c r="O17" s="7">
+        <v>36556988</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.80840558848392996</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="1"/>
+        <v>0.91580596813329607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1505347082</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1634572569</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1599020297</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1582304867</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1582304867</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1582071753</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1578512586</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1824408000</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1940619713</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1932676631</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1932547043</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1932545704</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1925717347</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1921423768</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96788101244589042</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99232082107577768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5">
+        <v>42967000</v>
+      </c>
+      <c r="C19" s="5">
+        <v>53548462</v>
+      </c>
+      <c r="D19" s="5">
+        <v>50661544</v>
+      </c>
+      <c r="E19" s="5">
+        <v>49918634</v>
+      </c>
+      <c r="F19" s="5">
+        <v>49918634</v>
+      </c>
+      <c r="G19" s="5">
+        <v>49911240</v>
+      </c>
+      <c r="H19" s="5">
+        <v>49873706</v>
+      </c>
+      <c r="I19" s="7">
+        <v>39273000</v>
+      </c>
+      <c r="J19" s="7">
+        <v>42623551</v>
+      </c>
+      <c r="K19" s="7">
+        <v>39944183</v>
+      </c>
+      <c r="L19" s="7">
+        <v>39777724</v>
+      </c>
+      <c r="M19" s="7">
+        <v>39760568</v>
+      </c>
+      <c r="N19" s="7">
+        <v>39760568</v>
+      </c>
+      <c r="O19" s="7">
+        <v>39755824</v>
+      </c>
+      <c r="P19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.93207606971046153</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.93283096004835453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7596677556</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9009435584</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8379762292</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8245478134</v>
+      </c>
+      <c r="F20" s="5">
+        <v>8245465429</v>
+      </c>
+      <c r="G20" s="5">
+        <v>8238711552</v>
+      </c>
+      <c r="H20" s="5">
+        <v>8236185347</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7600413770</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8498254914</v>
+      </c>
+      <c r="K20" s="7">
+        <v>8309698911</v>
+      </c>
+      <c r="L20" s="7">
+        <v>8204549363</v>
+      </c>
+      <c r="M20" s="7">
+        <v>8099542917</v>
+      </c>
+      <c r="N20" s="7">
+        <v>8091362420</v>
+      </c>
+      <c r="O20" s="7">
+        <v>8088160129</v>
+      </c>
+      <c r="P20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.91445368305105135</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.95212046495220015</v>
+      </c>
+      <c r="S20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20">
+        <f>PEARSON(P2:P31,Q2:Q31)</f>
+        <v>0.60504549867372726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5">
+        <v>13765000</v>
+      </c>
+      <c r="C21" s="5">
+        <v>20871130</v>
+      </c>
+      <c r="D21" s="5">
+        <v>19854288</v>
+      </c>
+      <c r="E21" s="5">
+        <v>19854277</v>
+      </c>
+      <c r="F21" s="5">
+        <v>19854277</v>
+      </c>
+      <c r="G21" s="5">
+        <v>19786475</v>
+      </c>
+      <c r="H21" s="5">
+        <v>19774075</v>
+      </c>
+      <c r="I21" s="7">
+        <v>21255264</v>
+      </c>
+      <c r="J21" s="7">
+        <v>21754388</v>
+      </c>
+      <c r="K21" s="7">
+        <v>21708267</v>
+      </c>
+      <c r="L21" s="7">
+        <v>21708267</v>
+      </c>
+      <c r="M21" s="7">
+        <v>21708267</v>
+      </c>
+      <c r="N21" s="7">
+        <v>21703207</v>
+      </c>
+      <c r="O21" s="7">
+        <v>21703207</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.94803084452063691</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99764732522008892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5">
+        <v>624824866</v>
+      </c>
+      <c r="C22" s="5">
+        <v>651461557</v>
+      </c>
+      <c r="D22" s="5">
+        <v>524650469</v>
+      </c>
+      <c r="E22" s="5">
+        <v>523788854</v>
+      </c>
+      <c r="F22" s="5">
+        <v>523788854</v>
+      </c>
+      <c r="G22" s="5">
+        <v>522541769</v>
+      </c>
+      <c r="H22" s="5">
+        <v>521747354</v>
+      </c>
+      <c r="I22" s="7">
+        <v>708032291</v>
+      </c>
+      <c r="J22" s="7">
+        <v>709777837</v>
+      </c>
+      <c r="K22" s="7">
+        <v>562249032</v>
+      </c>
+      <c r="L22" s="7">
+        <v>551053520</v>
+      </c>
+      <c r="M22" s="7">
+        <v>551053520</v>
+      </c>
+      <c r="N22" s="7">
+        <v>550915607</v>
+      </c>
+      <c r="O22" s="7">
+        <v>550087338</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="0"/>
+        <v>0.80210683713452025</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.77618034585095108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5">
+        <v>147251120</v>
+      </c>
+      <c r="C23" s="5">
+        <v>169246249</v>
+      </c>
+      <c r="D23" s="5">
+        <v>163432368</v>
+      </c>
+      <c r="E23" s="5">
+        <v>163432316</v>
+      </c>
+      <c r="F23" s="5">
+        <v>163432316</v>
+      </c>
+      <c r="G23" s="5">
+        <v>163431482</v>
+      </c>
+      <c r="H23" s="5">
+        <v>163265319</v>
+      </c>
+      <c r="I23" s="7">
+        <v>43197978</v>
+      </c>
+      <c r="J23" s="7">
+        <v>208993846</v>
+      </c>
+      <c r="K23" s="7">
+        <v>194670232</v>
+      </c>
+      <c r="L23" s="7">
+        <v>194380626</v>
+      </c>
+      <c r="M23" s="7">
+        <v>194302252</v>
+      </c>
+      <c r="N23" s="7">
+        <v>194302252</v>
+      </c>
+      <c r="O23" s="7">
+        <v>191387293</v>
+      </c>
+      <c r="P23" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96564315584920291</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.92970322197908162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5">
+        <v>338220002</v>
+      </c>
+      <c r="C24" s="5">
+        <v>480913173</v>
+      </c>
+      <c r="D24" s="5">
+        <v>403740134</v>
+      </c>
+      <c r="E24" s="5">
+        <v>403672808</v>
+      </c>
+      <c r="F24" s="5">
+        <v>403672808</v>
+      </c>
+      <c r="G24" s="5">
+        <v>403568530</v>
+      </c>
+      <c r="H24" s="5">
+        <v>403537180</v>
+      </c>
+      <c r="I24" s="7">
+        <v>58642327</v>
+      </c>
+      <c r="J24" s="7">
+        <v>565056032</v>
+      </c>
+      <c r="K24" s="7">
+        <v>517644708</v>
+      </c>
+      <c r="L24" s="7">
+        <v>512754943</v>
+      </c>
+      <c r="M24" s="7">
+        <v>512754943</v>
+      </c>
+      <c r="N24" s="7">
+        <v>511572343</v>
+      </c>
+      <c r="O24" s="7">
+        <v>507132161</v>
+      </c>
+      <c r="P24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.83917129464864959</v>
+      </c>
+      <c r="Q24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.90534799033877056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5">
+        <v>280049870</v>
+      </c>
+      <c r="C25" s="5">
+        <v>353301038</v>
+      </c>
+      <c r="D25" s="5">
+        <v>331120406</v>
+      </c>
+      <c r="E25" s="5">
+        <v>331045227</v>
+      </c>
+      <c r="F25" s="5">
+        <v>331045227</v>
+      </c>
+      <c r="G25" s="5">
+        <v>330625362</v>
+      </c>
+      <c r="H25" s="5">
+        <v>330179823</v>
+      </c>
+      <c r="I25" s="7">
+        <v>367053258</v>
+      </c>
+      <c r="J25" s="7">
+        <v>478975262</v>
+      </c>
+      <c r="K25" s="7">
+        <v>401125963</v>
+      </c>
+      <c r="L25" s="7">
+        <v>392327748</v>
+      </c>
+      <c r="M25" s="7">
+        <v>392329918</v>
+      </c>
+      <c r="N25" s="7">
+        <v>392298191</v>
+      </c>
+      <c r="O25" s="7">
+        <v>391669161</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="0"/>
+        <v>0.93581769210652588</v>
+      </c>
+      <c r="Q25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.81903643491299971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5">
+        <v>505283712</v>
+      </c>
+      <c r="C26" s="5">
+        <v>537021774</v>
+      </c>
+      <c r="D26" s="5">
+        <v>501466024</v>
+      </c>
+      <c r="E26" s="5">
+        <v>497150911</v>
+      </c>
+      <c r="F26" s="5">
+        <v>497150911</v>
+      </c>
+      <c r="G26" s="5">
+        <v>497119895</v>
+      </c>
+      <c r="H26" s="5">
+        <v>495025214</v>
+      </c>
+      <c r="I26" s="7">
+        <v>599132410</v>
+      </c>
+      <c r="J26" s="7">
+        <v>642820599</v>
+      </c>
+      <c r="K26" s="7">
+        <v>574358338</v>
+      </c>
+      <c r="L26" s="7">
+        <v>569908876</v>
+      </c>
+      <c r="M26" s="7">
+        <v>566909820</v>
+      </c>
+      <c r="N26" s="7">
+        <v>566827287</v>
+      </c>
+      <c r="O26" s="7">
+        <v>565340009</v>
+      </c>
+      <c r="P26" s="14">
+        <f t="shared" si="0"/>
+        <v>0.92569783771933245</v>
+      </c>
+      <c r="Q26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.88178146108227007</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10284800359</v>
+      </c>
+      <c r="C27" s="5">
+        <v>10740402592</v>
+      </c>
+      <c r="D27" s="5">
+        <v>9650714904</v>
+      </c>
+      <c r="E27" s="5">
+        <v>9024701764</v>
+      </c>
+      <c r="F27" s="5">
+        <v>9024701764</v>
+      </c>
+      <c r="G27" s="5">
+        <v>8985887192</v>
+      </c>
+      <c r="H27" s="5">
+        <v>8973458494</v>
+      </c>
+      <c r="I27" s="7">
+        <v>14278377405</v>
+      </c>
+      <c r="J27" s="7">
+        <v>11701399770</v>
+      </c>
+      <c r="K27" s="7">
+        <v>10914026757</v>
+      </c>
+      <c r="L27" s="7">
+        <v>10623304160</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10379421268</v>
+      </c>
+      <c r="N27" s="7">
+        <v>10375601238</v>
+      </c>
+      <c r="O27" s="7">
+        <v>10363223935</v>
+      </c>
+      <c r="P27" s="14">
+        <f t="shared" si="0"/>
+        <v>0.83664342328220986</v>
+      </c>
+      <c r="Q27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.88669744149763374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4994365078</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2478207482</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2091212583</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2039396196</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2039396196</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2038210653</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2022902732</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5427910973</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5135913677</v>
+      </c>
+      <c r="K28" s="7">
+        <v>4459068435</v>
+      </c>
+      <c r="L28" s="7">
+        <v>4146086092</v>
+      </c>
+      <c r="M28" s="7">
+        <v>4083735856</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4075019065</v>
+      </c>
+      <c r="O28" s="7">
+        <v>4071740999</v>
+      </c>
+      <c r="P28" s="14">
+        <f t="shared" si="0"/>
+        <v>0.82245359511024185</v>
+      </c>
+      <c r="Q28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.79343605077496326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="5">
+        <v>745729283</v>
+      </c>
+      <c r="C29" s="5">
+        <v>816729717</v>
+      </c>
+      <c r="D29" s="5">
+        <v>685239206</v>
+      </c>
+      <c r="E29" s="5">
+        <v>649900830</v>
+      </c>
+      <c r="F29" s="5">
+        <v>649900830</v>
+      </c>
+      <c r="G29" s="5">
+        <v>649875257</v>
+      </c>
+      <c r="H29" s="5">
+        <v>647699364</v>
+      </c>
+      <c r="I29" s="7">
+        <v>845421997</v>
+      </c>
+      <c r="J29" s="7">
+        <v>911804592</v>
+      </c>
+      <c r="K29" s="7">
+        <v>780210737</v>
+      </c>
+      <c r="L29" s="7">
+        <v>772974378</v>
+      </c>
+      <c r="M29" s="7">
+        <v>766666719</v>
+      </c>
+      <c r="N29" s="7">
+        <v>764555174</v>
+      </c>
+      <c r="O29" s="7">
+        <v>763021317</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" si="0"/>
+        <v>0.79570418888039551</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="1"/>
+        <v>0.83850770297502519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="5">
+        <v>361205344</v>
+      </c>
+      <c r="C30" s="5">
+        <v>364826004</v>
+      </c>
+      <c r="D30" s="5">
+        <v>360133511</v>
+      </c>
+      <c r="E30" s="5">
+        <v>359230900</v>
+      </c>
+      <c r="F30" s="5">
+        <v>359230900</v>
+      </c>
+      <c r="G30" s="5">
+        <v>358943529</v>
+      </c>
+      <c r="H30" s="5">
+        <v>358335569</v>
+      </c>
+      <c r="I30" s="7">
+        <v>456517951</v>
+      </c>
+      <c r="J30" s="7">
+        <v>456862459</v>
+      </c>
+      <c r="K30" s="7">
+        <v>448834377</v>
+      </c>
+      <c r="L30" s="7">
+        <v>446902602</v>
+      </c>
+      <c r="M30" s="7">
+        <v>446065218</v>
+      </c>
+      <c r="N30" s="7">
+        <v>446019402</v>
+      </c>
+      <c r="O30" s="7">
+        <v>444536640</v>
+      </c>
+      <c r="P30" s="14">
+        <f t="shared" si="0"/>
+        <v>0.98387594377729715</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="1"/>
+        <v>0.97626625522321586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5">
+        <v>4305578000</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3840280984</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3759461887</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3752065756</v>
+      </c>
+      <c r="F31" s="5">
+        <v>3752065756</v>
+      </c>
+      <c r="G31" s="5">
+        <v>3751255363</v>
+      </c>
+      <c r="H31" s="5">
+        <v>3747430581</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4474653368</v>
+      </c>
+      <c r="J31" s="7">
+        <v>4358360723</v>
+      </c>
+      <c r="K31" s="7">
+        <v>4269163554</v>
+      </c>
+      <c r="L31" s="7">
+        <v>4267995737</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4267650020</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4266995079</v>
+      </c>
+      <c r="O31" s="7">
+        <v>4264829176</v>
+      </c>
+      <c r="P31" s="14">
+        <f t="shared" si="0"/>
+        <v>0.97681794083013385</v>
+      </c>
+      <c r="Q31" s="15">
+        <f t="shared" si="1"/>
+        <v>0.97903669526071024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P32" s="14"/>
+      <c r="Q32" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V26" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data/G_1816.xlsx
+++ b/data/G_1816.xlsx
@@ -18,7 +18,7 @@
     <sheet name="exploracionNUMERICAModelo1" sheetId="6" r:id="rId4"/>
     <sheet name="diferenciaMediasModelo1" sheetId="7" r:id="rId5"/>
     <sheet name="correlacionModelo1" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="regresionModelo1" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="avance16">#REF!</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="138">
   <si>
     <t>sector</t>
   </si>
@@ -401,6 +401,57 @@
   <si>
     <t>sectorn</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
 </sst>
 </file>
 
@@ -573,7 +624,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -619,6 +670,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -652,7 +706,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1143,11 +1196,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1788143440"/>
-        <c:axId val="1788288848"/>
+        <c:axId val="1793333152"/>
+        <c:axId val="1792284832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1788143440"/>
+        <c:axId val="1793333152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1788288848"/>
+        <c:crossAx val="1792284832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1197,7 +1250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1788288848"/>
+        <c:axId val="1792284832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1788143440"/>
+        <c:crossAx val="1793333152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,7 +1315,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1613,11 +1665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1778859312"/>
-        <c:axId val="-2059774288"/>
+        <c:axId val="1789502720"/>
+        <c:axId val="-2037520176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1778859312"/>
+        <c:axId val="1789502720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,12 +1726,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059774288"/>
+        <c:crossAx val="-2037520176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2059774288"/>
+        <c:axId val="-2037520176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,7 +1788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1778859312"/>
+        <c:crossAx val="1789502720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2119,11 +2171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1790133264"/>
-        <c:axId val="1790079552"/>
+        <c:axId val="1793548608"/>
+        <c:axId val="1860101664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1790133264"/>
+        <c:axId val="1793548608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2182,12 +2234,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1790079552"/>
+        <c:crossAx val="1860101664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1790079552"/>
+        <c:axId val="1860101664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2246,7 +2298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1790133264"/>
+        <c:crossAx val="1793548608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15891,10 +15943,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16843,7 +16895,7 @@
         <v>0.98445166376461479</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -16901,7 +16953,7 @@
         <v>0.91580596813329607</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -16959,7 +17011,7 @@
         <v>0.99232082107577768</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -17017,7 +17069,7 @@
         <v>0.93283096004835453</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -17075,7 +17127,7 @@
         <v>0.95212046495220015</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -17132,8 +17184,11 @@
         <f t="shared" si="1"/>
         <v>0.99764732522008892</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -17191,7 +17246,7 @@
         <v>0.77618034585095108</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -17248,8 +17303,12 @@
         <f t="shared" si="1"/>
         <v>0.92970322197908162</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="U23" s="23"/>
+    </row>
+    <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -17306,8 +17365,14 @@
         <f t="shared" si="1"/>
         <v>0.90534799033877056</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0.60504549867372692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -17364,8 +17429,14 @@
         <f t="shared" si="1"/>
         <v>0.81903643491299971</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0.36608005546533895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -17422,9 +17493,14 @@
         <f t="shared" si="1"/>
         <v>0.88178146108227007</v>
       </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0.3434400574462439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -17481,8 +17557,14 @@
         <f t="shared" si="1"/>
         <v>0.88669744149763374</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="U27" s="16">
+        <v>5.8384498410627574E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -17539,8 +17621,14 @@
         <f t="shared" si="1"/>
         <v>0.79343605077496326</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="U28" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -17598,7 +17686,7 @@
         <v>0.83850770297502519</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -17655,8 +17743,11 @@
         <f t="shared" si="1"/>
         <v>0.97626625522321586</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -17713,10 +17804,160 @@
         <f t="shared" si="1"/>
         <v>0.97903669526071024</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T31" s="18"/>
+      <c r="U31" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y31" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Q32" s="14"/>
       <c r="R32" s="15"/>
+      <c r="T32" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="U32" s="16">
+        <v>1</v>
+      </c>
+      <c r="V32" s="16">
+        <v>5.5118170133809832E-2</v>
+      </c>
+      <c r="W32" s="16">
+        <v>5.5118170133809832E-2</v>
+      </c>
+      <c r="X32" s="16">
+        <v>16.169615172076409</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>3.9703482805240312E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="T33" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="U33" s="16">
+        <v>28</v>
+      </c>
+      <c r="V33" s="16">
+        <v>9.5444990330496068E-2</v>
+      </c>
+      <c r="W33" s="16">
+        <v>3.408749654660574E-3</v>
+      </c>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+    </row>
+    <row r="34" spans="20:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U34" s="17">
+        <v>29</v>
+      </c>
+      <c r="V34" s="17">
+        <v>0.1505631604643059</v>
+      </c>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+    </row>
+    <row r="35" spans="20:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="T36" s="18"/>
+      <c r="U36" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V36" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="W36" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="X36" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y36" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z36" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA36" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB36" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="T37" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="U37" s="16">
+        <v>0.28168008441735215</v>
+      </c>
+      <c r="V37" s="16">
+        <v>0.15420282710161409</v>
+      </c>
+      <c r="W37" s="16">
+        <v>1.8266856043549393</v>
+      </c>
+      <c r="X37" s="16">
+        <v>7.8426657026358995E-2</v>
+      </c>
+      <c r="Y37" s="16">
+        <v>-3.4190087902611466E-2</v>
+      </c>
+      <c r="Z37" s="16">
+        <v>0.59755025673731577</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>-3.4190087902611466E-2</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>0.59755025673731577</v>
+      </c>
+    </row>
+    <row r="38" spans="20:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T38" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="U38" s="17">
+        <v>0.68654176119299448</v>
+      </c>
+      <c r="V38" s="17">
+        <v>0.17073286092937745</v>
+      </c>
+      <c r="W38" s="17">
+        <v>4.0211460023327206</v>
+      </c>
+      <c r="X38" s="17">
+        <v>3.9703482805240122E-4</v>
+      </c>
+      <c r="Y38" s="17">
+        <v>0.33681134952612346</v>
+      </c>
+      <c r="Z38" s="17">
+        <v>1.0362721728598654</v>
+      </c>
+      <c r="AA38" s="17">
+        <v>0.33681134952612346</v>
+      </c>
+      <c r="AB38" s="17">
+        <v>1.0362721728598654</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
